--- a/Data/User.xlsx
+++ b/Data/User.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Asoftware\PyTestLoginFunctionality\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271FA226-99D4-4C12-8139-4F0ED6124514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6966A9EC-A8D2-4884-9597-B233269D8F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>farukyucel5@gmail.com</t>
   </si>
@@ -46,13 +46,19 @@
   </si>
   <si>
     <t>ws</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,13 +74,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,19 +120,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -109,6 +184,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BABCAA7-CF1A-44EF-BC8B-269E16B6DF63}" name="Table1" displayName="Table1" ref="A1:B8" totalsRowShown="0" dataDxfId="0" headerRowCellStyle="Bad">
+  <autoFilter ref="A1:B8" xr:uid="{9BABCAA7-CF1A-44EF-BC8B-269E16B6DF63}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A12DC339-28C0-451F-BF41-1E147C116733}" name="Email" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{402BC469-6218-4276-9B65-8A599ABDD1B9}" name="Password" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,75 +460,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{78ECF436-3223-4C6F-9127-3A7BE02664F3}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{2B7012EB-9722-4DFF-99F5-5EFAA729AC83}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{32B7DEA3-54B2-48E0-B580-39C703909CE5}"/>
-    <hyperlink ref="A7" r:id="rId4" xr:uid="{2E320BC9-F5C1-4563-A945-10B37C4214F1}"/>
-    <hyperlink ref="A1" r:id="rId5" xr:uid="{0804F77B-6935-4D13-A9F6-86E60A0CC38A}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{78ECF436-3223-4C6F-9127-3A7BE02664F3}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{2B7012EB-9722-4DFF-99F5-5EFAA729AC83}"/>
+    <hyperlink ref="A7" r:id="rId3" xr:uid="{32B7DEA3-54B2-48E0-B580-39C703909CE5}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{2E320BC9-F5C1-4563-A945-10B37C4214F1}"/>
+    <hyperlink ref="A2" r:id="rId5" xr:uid="{0804F77B-6935-4D13-A9F6-86E60A0CC38A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>